--- a/pred_ohlcv/54_21/2020-01-25 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 CON ohlcv.xlsx
@@ -6710,7 +6710,7 @@
         <v>-2886580.620399996</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2989907.310399996</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-3075010.630399996</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-3075410.630399996</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-3075410.630399996</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-3076610.630399996</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-3077405.694399996</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-3184449.929299996</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-3282822.740599996</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3229010.106511318</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3330134.336511318</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3435263.486511318</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3345152.786511318</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3415238.886511318</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-3332136.796511318</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3332136.796511318</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-3378193.376511318</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3416736.972511318</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3429840.006511318</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3429840.006511318</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3553992.526511318</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3488912.576511318</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3488912.576511318</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3535970.386511318</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3549987.606511318</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-3436052.612611318</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3436052.612611318</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3529557.468711318</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3455266.448711318</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3551230.619711318</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3553165.583911318</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3476288.033411318</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3554927.128811318</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3610523.174211318</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-3638589.407211318</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3547477.477211318</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3548521.829411318</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3456408.669411318</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3543671.327211318</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3634977.107211318</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3738303.797211318</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-3758964.001967502</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3662845.921967502</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3594062.281967502</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3615019.260667502</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3644054.930667502</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3644571.370367502</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-6320685.334967494</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-6076724.796467494</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-6013647.306467494</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-5918530.456467494</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-5922535.376467494</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-5924543.301867494</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-5549129.308367494</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-5483048.128367494</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-5556137.918367494</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-5533109.628367494</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-5474037.058367494</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-5579166.208367494</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-5801938.265367494</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-5780353.873967494</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-5745310.823967494</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-5735266.264367493</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 CON ohlcv.xlsx
@@ -6710,7 +6710,7 @@
         <v>-2886580.620399996</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-3063384.565999997</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3551230.619711318</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3553165.583911318</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3476288.033411318</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3554927.128811318</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3610523.174211318</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-3638589.407211318</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3547477.477211318</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3548521.829411318</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3456408.669411318</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3543671.327211318</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3634977.107211318</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3738303.797211318</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3594062.281967502</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3615019.260667502</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3644054.930667502</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-6320685.334967494</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-6076724.796467494</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-6013647.306467494</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-5918530.456467494</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-5872473.876467494</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-5509080.108367494</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-5483048.128367494</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-5556137.918367494</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-5533109.628367494</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-5474037.058367494</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-5579166.208367494</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-5801938.265367494</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-5780353.873967494</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-5745310.823967494</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-5735266.264367493</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-5757229.245367493</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-5709170.205367493</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
